--- a/data/trans_media/Q20C-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q20C-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 19,04</t>
+          <t>5,74; 18,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,35</t>
+          <t>3,36; 8,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 30,73</t>
+          <t>3,11; 30,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,74</t>
+          <t>4,09; 7,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,56</t>
+          <t>3,38; 6,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,46</t>
+          <t>3,56; 8,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,37</t>
+          <t>5,16; 10,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,44</t>
+          <t>3,71; 6,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 17,29</t>
+          <t>4,11; 16,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,55</t>
+          <t>1,45; 3,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,57</t>
+          <t>3,98; 9,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 11,39</t>
+          <t>5,65; 11,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,18</t>
+          <t>1,8; 4,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,73</t>
+          <t>4,18; 8,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,73</t>
+          <t>5,29; 9,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,45</t>
+          <t>2,01; 4,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,43</t>
+          <t>4,48; 8,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,51</t>
+          <t>5,99; 9,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,72</t>
+          <t>3,43; 12,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,89</t>
+          <t>2,02; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,95</t>
+          <t>4,06; 12,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,06</t>
+          <t>2,79; 10,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,42</t>
+          <t>3,5; 10,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,05</t>
+          <t>2,44; 5,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,46</t>
+          <t>4,86; 11,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,53</t>
+          <t>3,97; 7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,95</t>
+          <t>5,65; 14,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,37; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,89</t>
+          <t>4,36; 7,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>4,92; 8,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,94</t>
+          <t>4,33; 7,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,58</t>
+          <t>4,61; 6,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,23</t>
+          <t>5,65; 9,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
